--- a/Sistema de Inteligência - Faturamento/planilhas_auxiliares/lilly.xlsx
+++ b/Sistema de Inteligência - Faturamento/planilhas_auxiliares/lilly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tiamorei\PycharmProjects\Inteligencia e Investigações\Faturamento_Escolta\planilhas_auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3879EA-06DA-4CF3-8A1F-25497E3F9A24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF262D3A-352B-482B-93A3-FF383D05EB95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{C95CA153-7855-43CD-9B7E-0EF942A7732B}"/>
   </bookViews>
@@ -4004,7 +4004,7 @@
   <dimension ref="A1:C71"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -4031,7 +4031,7 @@
         <v>100</v>
       </c>
       <c r="B2" s="56">
-        <v>948.36655004900013</v>
+        <v>804.97</v>
       </c>
       <c r="C2" s="56">
         <v>196.78757678315003</v>
@@ -4042,7 +4042,7 @@
         <v>150</v>
       </c>
       <c r="B3" s="56">
-        <v>1318.2295045681101</v>
+        <v>1118.9100000000001</v>
       </c>
       <c r="C3" s="56">
         <v>196.78757678315003</v>
@@ -4053,7 +4053,7 @@
         <v>180</v>
       </c>
       <c r="B4" s="56">
-        <v>1540.1472772795762</v>
+        <v>1307.28</v>
       </c>
       <c r="C4" s="56">
         <v>196.78757678315003</v>
@@ -4064,7 +4064,7 @@
         <v>200</v>
       </c>
       <c r="B5" s="56">
-        <v>1688.09245908722</v>
+        <v>1432.85</v>
       </c>
       <c r="C5" s="56">
         <v>196.78757678315003</v>
@@ -4075,7 +4075,7 @@
         <v>250</v>
       </c>
       <c r="B6" s="56">
-        <v>2057.9554136063302</v>
+        <v>1746.79</v>
       </c>
       <c r="C6" s="56">
         <v>196.78757678315003</v>
@@ -4086,7 +4086,7 @@
         <v>300</v>
       </c>
       <c r="B7" s="56">
-        <v>2427.8183681254404</v>
+        <v>2060.73</v>
       </c>
       <c r="C7" s="56">
         <v>196.78757678315003</v>
@@ -4097,7 +4097,7 @@
         <v>350</v>
       </c>
       <c r="B8" s="56">
-        <v>2797.6813226445506</v>
+        <v>2374.67</v>
       </c>
       <c r="C8" s="56">
         <v>196.78757678315003</v>
@@ -4108,7 +4108,7 @@
         <v>400</v>
       </c>
       <c r="B9" s="56">
-        <v>3167.5442771636608</v>
+        <v>2688.61</v>
       </c>
       <c r="C9" s="56">
         <v>196.78757678315003</v>
@@ -4119,7 +4119,7 @@
         <v>450</v>
       </c>
       <c r="B10" s="56">
-        <v>3537.407231682771</v>
+        <v>3002.55</v>
       </c>
       <c r="C10" s="56">
         <v>196.78757678315003</v>
@@ -4130,7 +4130,7 @@
         <v>500</v>
       </c>
       <c r="B11" s="56">
-        <v>3907.2701862018807</v>
+        <v>3316.49</v>
       </c>
       <c r="C11" s="56">
         <v>196.78757678315003</v>
@@ -4141,7 +4141,7 @@
         <v>550</v>
       </c>
       <c r="B12" s="56">
-        <v>4277.1331407209909</v>
+        <v>3630.43</v>
       </c>
       <c r="C12" s="56">
         <v>196.78757678315003</v>
@@ -4152,7 +4152,7 @@
         <v>600</v>
       </c>
       <c r="B13" s="56">
-        <v>4646.9960952401007</v>
+        <v>3944.37</v>
       </c>
       <c r="C13" s="56">
         <v>196.78757678315003</v>
@@ -4163,7 +4163,7 @@
         <v>650</v>
       </c>
       <c r="B14" s="56">
-        <v>4805.8357648397132</v>
+        <v>4079.19</v>
       </c>
       <c r="C14" s="56">
         <v>196.78757678315003</v>
@@ -4174,7 +4174,7 @@
         <v>700</v>
       </c>
       <c r="B15" s="56">
-        <v>4964.6754344393257</v>
+        <v>4214.0200000000004</v>
       </c>
       <c r="C15" s="56">
         <v>196.78757678315003</v>
@@ -4185,7 +4185,7 @@
         <v>750</v>
       </c>
       <c r="B16" s="56">
-        <v>5123.5151040389383</v>
+        <v>4348.84</v>
       </c>
       <c r="C16" s="56">
         <v>196.78757678315003</v>
@@ -4196,7 +4196,7 @@
         <v>800</v>
       </c>
       <c r="B17" s="56">
-        <v>5282.3547736385508</v>
+        <v>4483.66</v>
       </c>
       <c r="C17" s="56">
         <v>196.78757678315003</v>
@@ -4207,7 +4207,7 @@
         <v>850</v>
       </c>
       <c r="B18" s="56">
-        <v>5441.1944432381633</v>
+        <v>4618.49</v>
       </c>
       <c r="C18" s="56">
         <v>196.78757678315003</v>
@@ -4218,7 +4218,7 @@
         <v>900</v>
       </c>
       <c r="B19" s="56">
-        <v>5600.0341128377759</v>
+        <v>4753.3100000000004</v>
       </c>
       <c r="C19" s="56">
         <v>196.78757678315003</v>
@@ -4229,7 +4229,7 @@
         <v>950</v>
       </c>
       <c r="B20" s="56">
-        <v>5758.8737824373884</v>
+        <v>4888.13</v>
       </c>
       <c r="C20" s="56">
         <v>196.78757678315003</v>
@@ -4240,7 +4240,7 @@
         <v>1000</v>
       </c>
       <c r="B21" s="56">
-        <v>5827.3094648025008</v>
+        <v>4946.22</v>
       </c>
       <c r="C21" s="56">
         <v>196.78757678315003</v>
@@ -4251,7 +4251,7 @@
         <v>1050</v>
       </c>
       <c r="B22" s="56">
-        <v>5917.7134520370009</v>
+        <v>5022.96</v>
       </c>
       <c r="C22" s="56">
         <v>196.78757678315003</v>
@@ -4262,7 +4262,7 @@
         <v>1100</v>
       </c>
       <c r="B23" s="56">
-        <v>6192.1377381600005</v>
+        <v>5255.89</v>
       </c>
       <c r="C23" s="56">
         <v>196.78757678315003</v>
@@ -4273,7 +4273,7 @@
         <v>1150</v>
       </c>
       <c r="B24" s="56">
-        <v>6466.5620242830009</v>
+        <v>5488.82</v>
       </c>
       <c r="C24" s="56">
         <v>196.78757678315003</v>
@@ -4284,7 +4284,7 @@
         <v>1200</v>
       </c>
       <c r="B25" s="56">
-        <v>6740.9863104060014</v>
+        <v>5721.75</v>
       </c>
       <c r="C25" s="56">
         <v>196.78757678315003</v>
@@ -4295,7 +4295,7 @@
         <v>1250</v>
       </c>
       <c r="B26" s="56">
-        <v>7015.4105965290009</v>
+        <v>5954.68</v>
       </c>
       <c r="C26" s="56">
         <v>196.78757678315003</v>
@@ -4306,7 +4306,7 @@
         <v>1300</v>
       </c>
       <c r="B27" s="56">
-        <v>7289.8348826519996</v>
+        <v>6187.61</v>
       </c>
       <c r="C27" s="56">
         <v>196.78757678315003</v>
@@ -4317,7 +4317,7 @@
         <v>1350</v>
       </c>
       <c r="B28" s="56">
-        <v>7564.2591687750009</v>
+        <v>6420.54</v>
       </c>
       <c r="C28" s="56">
         <v>196.78757678315003</v>
@@ -4328,7 +4328,7 @@
         <v>1400</v>
       </c>
       <c r="B29" s="56">
-        <v>7838.6834548980005</v>
+        <v>6653.47</v>
       </c>
       <c r="C29" s="56">
         <v>196.78757678315003</v>
@@ -4339,7 +4339,7 @@
         <v>1450</v>
       </c>
       <c r="B30" s="56">
-        <v>8113.1077410210009</v>
+        <v>6886.41</v>
       </c>
       <c r="C30" s="56">
         <v>196.78757678315003</v>
@@ -4350,7 +4350,7 @@
         <v>1500</v>
       </c>
       <c r="B31" s="56">
-        <v>8387.5320271439996</v>
+        <v>7119.34</v>
       </c>
       <c r="C31" s="56">
         <v>196.78757678315003</v>
@@ -4361,7 +4361,7 @@
         <v>2000</v>
       </c>
       <c r="B32" s="56">
-        <v>11131.774888374004</v>
+        <v>9448.65</v>
       </c>
       <c r="C32" s="56">
         <v>196.78757678315003</v>
@@ -4372,7 +4372,7 @@
         <v>2500</v>
       </c>
       <c r="B33" s="56">
-        <v>13876.017749604001</v>
+        <v>11777.96</v>
       </c>
       <c r="C33" s="56">
         <v>196.78757678315003</v>
@@ -4383,7 +4383,7 @@
         <v>3000</v>
       </c>
       <c r="B34" s="56">
-        <v>16620.260610834004</v>
+        <v>14107.28</v>
       </c>
       <c r="C34" s="56">
         <v>196.78757678315003</v>
@@ -4394,7 +4394,7 @@
         <v>3500</v>
       </c>
       <c r="B35" s="56">
-        <v>19364.503472064</v>
+        <v>16436.59</v>
       </c>
       <c r="C35" s="56">
         <v>196.78757678315003</v>
@@ -4405,7 +4405,7 @@
         <v>4000</v>
       </c>
       <c r="B36" s="56">
-        <v>22108.746333294002</v>
+        <v>18765.900000000001</v>
       </c>
       <c r="C36" s="56">
         <v>196.78757678315003</v>
@@ -4593,14 +4593,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7a2a7cdb-841c-4031-a2b5-0b57da076d3c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="6594a71f-a926-456b-b768-6f37f8ffed2f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4839,27 +4837,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7a2a7cdb-841c-4031-a2b5-0b57da076d3c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="6594a71f-a926-456b-b768-6f37f8ffed2f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA422021-3170-4B98-8A10-2E318577F7A5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31115634-9F95-4C99-B18C-675198698F3B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="7a2a7cdb-841c-4031-a2b5-0b57da076d3c"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="6594a71f-a926-456b-b768-6f37f8ffed2f"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4884,9 +4875,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31115634-9F95-4C99-B18C-675198698F3B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA422021-3170-4B98-8A10-2E318577F7A5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="7a2a7cdb-841c-4031-a2b5-0b57da076d3c"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="6594a71f-a926-456b-b768-6f37f8ffed2f"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
